--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.09781768870467404</v>
+        <v>0.01384957621052772</v>
       </c>
       <c r="C2">
-        <v>0.09781807909858378</v>
+        <v>2.21878651858606</v>
       </c>
       <c r="D2">
-        <v>0.220070122506433</v>
+        <v>21.84152086182795</v>
       </c>
       <c r="E2">
-        <v>0.4691163208698169</v>
+        <v>4.673491292580734</v>
       </c>
       <c r="F2">
-        <v>0.4691162829535249</v>
+        <v>4.783449836594167</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3533564094378004</v>
+        <v>-0.1108950891496856</v>
       </c>
       <c r="C3">
-        <v>2.558293351813334</v>
+        <v>2.52800863553415</v>
       </c>
       <c r="D3">
-        <v>25.90499531260007</v>
+        <v>20.81929224357433</v>
       </c>
       <c r="E3">
-        <v>5.089695011746781</v>
+        <v>4.562816262307122</v>
       </c>
       <c r="F3">
-        <v>5.196899076927668</v>
+        <v>4.674114274267978</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.9761932629592093</v>
+        <v>-0.5909552399615555</v>
       </c>
       <c r="C4">
-        <v>2.467692221656369</v>
+        <v>1.803240045667984</v>
       </c>
       <c r="D4">
-        <v>19.72326690521151</v>
+        <v>9.880028153484647</v>
       </c>
       <c r="E4">
-        <v>4.441088482029097</v>
+        <v>3.143251207505478</v>
       </c>
       <c r="F4">
-        <v>4.439462726444811</v>
+        <v>3.167399740090089</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1839716899615556</v>
+        <v>-0.1812638745297453</v>
       </c>
       <c r="C5">
-        <v>1.396256495667985</v>
+        <v>1.430346199258623</v>
       </c>
       <c r="D5">
-        <v>6.312839331709046</v>
+        <v>9.695185292776637</v>
       </c>
       <c r="E5">
-        <v>2.512536433906789</v>
+        <v>3.113709249878132</v>
       </c>
       <c r="F5">
-        <v>2.570888388128188</v>
+        <v>3.193606854246072</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.06823382884553478</v>
+        <v>-0.1687010319474557</v>
       </c>
       <c r="C6">
-        <v>1.510467036597221</v>
+        <v>1.931467188986993</v>
       </c>
       <c r="D6">
-        <v>9.867250468964778</v>
+        <v>13.19207325907522</v>
       </c>
       <c r="E6">
-        <v>3.141217991315595</v>
+        <v>3.632089379279539</v>
       </c>
       <c r="F6">
-        <v>3.226533207103521</v>
+        <v>3.733355516202483</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.3598138023919001</v>
+        <v>-0.2974795460340417</v>
       </c>
       <c r="C7">
-        <v>1.91869847179625</v>
+        <v>1.914100224451346</v>
       </c>
       <c r="D7">
-        <v>13.14814849056302</v>
+        <v>11.03882338163619</v>
       </c>
       <c r="E7">
-        <v>3.626037574345172</v>
+        <v>3.322472480192453</v>
       </c>
       <c r="F7">
-        <v>3.712746607591391</v>
+        <v>3.410971252101159</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.301078016622277</v>
+        <v>-0.1960622915985716</v>
       </c>
       <c r="C8">
-        <v>1.917698695039582</v>
+        <v>1.836194656235551</v>
       </c>
       <c r="D8">
-        <v>11.05059529941992</v>
+        <v>11.49912085291426</v>
       </c>
       <c r="E8">
-        <v>3.324243568004595</v>
+        <v>3.391035365919127</v>
       </c>
       <c r="F8">
-        <v>3.412468906127151</v>
+        <v>3.496387534695756</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06847129159857163</v>
+        <v>-0.08754086917198256</v>
       </c>
       <c r="C9">
-        <v>1.755501846325137</v>
+        <v>1.885964882007152</v>
       </c>
       <c r="D9">
-        <v>11.33439003196579</v>
+        <v>11.84300447804472</v>
       </c>
       <c r="E9">
-        <v>3.366658585595782</v>
+        <v>3.441366658472288</v>
       </c>
       <c r="F9">
-        <v>3.476350839861456</v>
+        <v>3.561000221788015</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1263805358386493</v>
+        <v>-0.1199187714296267</v>
       </c>
       <c r="C10">
-        <v>1.874779812578261</v>
+        <v>2.158918608588491</v>
       </c>
       <c r="D10">
-        <v>11.8364881125208</v>
+        <v>14.23208708490037</v>
       </c>
       <c r="E10">
-        <v>3.440419758186608</v>
+        <v>3.772543847975842</v>
       </c>
       <c r="F10">
-        <v>3.558769260475041</v>
+        <v>3.912975378092231</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1131887169793432</v>
+        <v>-0.08524854279770107</v>
       </c>
       <c r="C11">
-        <v>2.30903469545812</v>
+        <v>2.086633922413215</v>
       </c>
       <c r="D11">
-        <v>15.32355388434682</v>
+        <v>13.79239774298984</v>
       </c>
       <c r="E11">
-        <v>3.914531119348372</v>
+        <v>3.713811753843999</v>
       </c>
       <c r="F11">
-        <v>4.072669564538719</v>
+        <v>3.864439325182775</v>
       </c>
       <c r="G11">
         <v>13</v>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01384957621052772</v>
+        <v>0.09781768870467404</v>
       </c>
       <c r="C2">
-        <v>2.21878651858606</v>
+        <v>0.09781807909858378</v>
       </c>
       <c r="D2">
-        <v>21.84152086182795</v>
+        <v>0.220070122506433</v>
       </c>
       <c r="E2">
-        <v>4.673491292580734</v>
+        <v>0.4691163208698169</v>
       </c>
       <c r="F2">
-        <v>4.783449836594167</v>
+        <v>0.4691162829535249</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1108950891496856</v>
+        <v>0.3533564094378004</v>
       </c>
       <c r="C3">
-        <v>2.52800863553415</v>
+        <v>2.558293351813334</v>
       </c>
       <c r="D3">
-        <v>20.81929224357433</v>
+        <v>25.90499531260007</v>
       </c>
       <c r="E3">
-        <v>4.562816262307122</v>
+        <v>5.089695011746781</v>
       </c>
       <c r="F3">
-        <v>4.674114274267978</v>
+        <v>5.196899076927668</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5909552399615555</v>
+        <v>-0.9761932629592093</v>
       </c>
       <c r="C4">
-        <v>1.803240045667984</v>
+        <v>2.467692221656369</v>
       </c>
       <c r="D4">
-        <v>9.880028153484647</v>
+        <v>19.72326690521151</v>
       </c>
       <c r="E4">
-        <v>3.143251207505478</v>
+        <v>4.441088482029097</v>
       </c>
       <c r="F4">
-        <v>3.167399740090089</v>
+        <v>4.439462726444811</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1812638745297453</v>
+        <v>-0.1839716899615556</v>
       </c>
       <c r="C5">
-        <v>1.430346199258623</v>
+        <v>1.396256495667985</v>
       </c>
       <c r="D5">
-        <v>9.695185292776637</v>
+        <v>6.312839331709046</v>
       </c>
       <c r="E5">
-        <v>3.113709249878132</v>
+        <v>2.512536433906789</v>
       </c>
       <c r="F5">
-        <v>3.193606854246072</v>
+        <v>2.570888388128188</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1687010319474557</v>
+        <v>-0.06823382884553478</v>
       </c>
       <c r="C6">
-        <v>1.931467188986993</v>
+        <v>1.510467036597221</v>
       </c>
       <c r="D6">
-        <v>13.19207325907522</v>
+        <v>9.867250468964778</v>
       </c>
       <c r="E6">
-        <v>3.632089379279539</v>
+        <v>3.141217991315595</v>
       </c>
       <c r="F6">
-        <v>3.733355516202483</v>
+        <v>3.226533207103521</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2974795460340417</v>
+        <v>-0.3598138023919001</v>
       </c>
       <c r="C7">
-        <v>1.914100224451346</v>
+        <v>1.91869847179625</v>
       </c>
       <c r="D7">
-        <v>11.03882338163619</v>
+        <v>13.14814849056302</v>
       </c>
       <c r="E7">
-        <v>3.322472480192453</v>
+        <v>3.626037574345172</v>
       </c>
       <c r="F7">
-        <v>3.410971252101159</v>
+        <v>3.712746607591391</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1960622915985716</v>
+        <v>-0.301078016622277</v>
       </c>
       <c r="C8">
-        <v>1.836194656235551</v>
+        <v>1.917698695039582</v>
       </c>
       <c r="D8">
-        <v>11.49912085291426</v>
+        <v>11.05059529941992</v>
       </c>
       <c r="E8">
-        <v>3.391035365919127</v>
+        <v>3.324243568004595</v>
       </c>
       <c r="F8">
-        <v>3.496387534695756</v>
+        <v>3.412468906127151</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.08754086917198256</v>
+        <v>-0.06847129159857163</v>
       </c>
       <c r="C9">
-        <v>1.885964882007152</v>
+        <v>1.755501846325137</v>
       </c>
       <c r="D9">
-        <v>11.84300447804472</v>
+        <v>11.33439003196579</v>
       </c>
       <c r="E9">
-        <v>3.441366658472288</v>
+        <v>3.366658585595782</v>
       </c>
       <c r="F9">
-        <v>3.561000221788015</v>
+        <v>3.476350839861456</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1199187714296267</v>
+        <v>-0.1263805358386493</v>
       </c>
       <c r="C10">
-        <v>2.158918608588491</v>
+        <v>1.874779812578261</v>
       </c>
       <c r="D10">
-        <v>14.23208708490037</v>
+        <v>11.8364881125208</v>
       </c>
       <c r="E10">
-        <v>3.772543847975842</v>
+        <v>3.440419758186608</v>
       </c>
       <c r="F10">
-        <v>3.912975378092231</v>
+        <v>3.558769260475041</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.08524854279770107</v>
+        <v>-0.1131887169793432</v>
       </c>
       <c r="C11">
-        <v>2.086633922413215</v>
+        <v>2.30903469545812</v>
       </c>
       <c r="D11">
-        <v>13.79239774298984</v>
+        <v>15.32355388434682</v>
       </c>
       <c r="E11">
-        <v>3.713811753843999</v>
+        <v>3.914531119348372</v>
       </c>
       <c r="F11">
-        <v>3.864439325182775</v>
+        <v>4.072669564538719</v>
       </c>
       <c r="G11">
         <v>13</v>
